--- a/MigrationTool/MigrationTool/Files/Hosts.xlsx
+++ b/MigrationTool/MigrationTool/Files/Hosts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\Publish\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\MigrationTool\MigrationTool\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC17E8-E09C-4165-B273-46A41359742A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AB4D68-8A33-4856-9653-CD37EE361310}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E4DB525-7351-4382-83A4-C967B7373505}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8E4DB525-7351-4382-83A4-C967B7373505}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="4" r:id="rId1"/>
@@ -438,28 +438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4773950-9E87-4FC3-9453-E956200075A1}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
